--- a/data/trans_orig/P34A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7895</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3483</v>
+        <v>2845</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15831</v>
+        <v>16083</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01376689153080352</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006073811144575995</v>
+        <v>0.004960401312520349</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02760412541921209</v>
+        <v>0.02804394732476592</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>7286</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2936</v>
+        <v>3025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15633</v>
+        <v>14818</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008040199250073189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003240591023115202</v>
+        <v>0.003338485100053938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01725263585449125</v>
+        <v>0.01635300276693894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>15181</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8412</v>
+        <v>8138</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25266</v>
+        <v>25380</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01025982939366361</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005685149753733562</v>
+        <v>0.005499734608753233</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01707544975184111</v>
+        <v>0.0171525386102778</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>37866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26618</v>
+        <v>26802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51894</v>
+        <v>51911</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06602540193214557</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04641284206630512</v>
+        <v>0.04673493499676983</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09048660604433892</v>
+        <v>0.09051665138215557</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -836,19 +836,19 @@
         <v>38890</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28301</v>
+        <v>28771</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54671</v>
+        <v>53247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04291856215451843</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03123296923721988</v>
+        <v>0.0317509255395506</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06033357165716699</v>
+        <v>0.05876265656330965</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>75</v>
@@ -857,19 +857,19 @@
         <v>76756</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62090</v>
+        <v>61080</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96284</v>
+        <v>94532</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05187462886446122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04196286513075007</v>
+        <v>0.04128054519468162</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06507233678441274</v>
+        <v>0.06388821223119055</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>229630</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>207879</v>
+        <v>206273</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>252871</v>
+        <v>254014</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4004016792496177</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3624757401959532</v>
+        <v>0.3596741656943782</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4409271107023808</v>
+        <v>0.4429202882665811</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>331</v>
@@ -907,19 +907,19 @@
         <v>340891</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>312254</v>
+        <v>311970</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>369486</v>
+        <v>371912</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3762007008482163</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3445971358186608</v>
+        <v>0.3442839953522393</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4077574840065678</v>
+        <v>0.4104349078429793</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>561</v>
@@ -928,19 +928,19 @@
         <v>570521</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>533989</v>
+        <v>532922</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>609155</v>
+        <v>609188</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3855808488517826</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3608909481244171</v>
+        <v>0.3601697804895737</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4116915466951121</v>
+        <v>0.4117133473258855</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>298108</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>276011</v>
+        <v>273769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>322440</v>
+        <v>322017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5198060272874332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4812754591995881</v>
+        <v>0.4773661830975011</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5622334307768722</v>
+        <v>0.5614958197686988</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>493</v>
@@ -978,19 +978,19 @@
         <v>519074</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>487895</v>
+        <v>488519</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>546922</v>
+        <v>548108</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5728405377471921</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5384319040406297</v>
+        <v>0.539120681256153</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6035726555090489</v>
+        <v>0.6048811719648201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>783</v>
@@ -999,19 +999,19 @@
         <v>817183</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>776107</v>
+        <v>776311</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>853237</v>
+        <v>856781</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5522846928900926</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5245241388918894</v>
+        <v>0.5246619846034887</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5766518162560217</v>
+        <v>0.5790466094639457</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>34679</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23999</v>
+        <v>24061</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48046</v>
+        <v>46551</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03253500449027972</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02251492620674909</v>
+        <v>0.02257347181060127</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04507532604818176</v>
+        <v>0.04367339200607264</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -1124,19 +1124,19 @@
         <v>12801</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6630</v>
+        <v>7183</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21448</v>
+        <v>22661</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01232042929886054</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006380787177304622</v>
+        <v>0.00691332460336236</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02064251410951063</v>
+        <v>0.02181031673249072</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>48</v>
@@ -1145,19 +1145,19 @@
         <v>47480</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>35503</v>
+        <v>35601</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>62427</v>
+        <v>62669</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02255683302370645</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01686683461886066</v>
+        <v>0.01691311735246998</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02965800169856134</v>
+        <v>0.02977295191233488</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>122836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101636</v>
+        <v>103660</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144952</v>
+        <v>146524</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1152414352984474</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09535188018685326</v>
+        <v>0.09725114814991762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.135990260240248</v>
+        <v>0.1374646632664354</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1195,19 +1195,19 @@
         <v>60603</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45697</v>
+        <v>47903</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77178</v>
+        <v>77103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05832730567100523</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0439812835669607</v>
+        <v>0.04610420955468492</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07428015544580167</v>
+        <v>0.0742079612790847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>182</v>
@@ -1216,19 +1216,19 @@
         <v>183438</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158979</v>
+        <v>158348</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>211771</v>
+        <v>212684</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08714789690272284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07552769082151813</v>
+        <v>0.07522781733851039</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.100608237473408</v>
+        <v>0.1010420058252603</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>444550</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>411722</v>
+        <v>412665</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>477561</v>
+        <v>474980</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4170658311465828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3862673294150238</v>
+        <v>0.3871517533769021</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4480358932292886</v>
+        <v>0.4456140772373643</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>509</v>
@@ -1266,19 +1266,19 @@
         <v>518865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>485948</v>
+        <v>484829</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>549818</v>
+        <v>550011</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4993843907238532</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.467703119337151</v>
+        <v>0.466625922343035</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5291751343169914</v>
+        <v>0.5293603244080562</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>945</v>
@@ -1287,19 +1287,19 @@
         <v>963416</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>917140</v>
+        <v>919127</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1007720</v>
+        <v>1011872</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4576993193384098</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4357146758111461</v>
+        <v>0.4366587626586509</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4787472231725763</v>
+        <v>0.4807200049253899</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>463835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>433139</v>
+        <v>433039</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>498613</v>
+        <v>496233</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4351577290646901</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4063601017531815</v>
+        <v>0.4062656190488474</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4677861406632488</v>
+        <v>0.4655530642129828</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>428</v>
@@ -1337,19 +1337,19 @@
         <v>446741</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>417491</v>
+        <v>418007</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>479605</v>
+        <v>483608</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.429967874306281</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4018159854158359</v>
+        <v>0.4023125738430746</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4615976795502445</v>
+        <v>0.4654511789002731</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>879</v>
@@ -1358,19 +1358,19 @@
         <v>910576</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>864926</v>
+        <v>863373</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>957663</v>
+        <v>955639</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4325959507351608</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.410908880374239</v>
+        <v>0.4101710145107564</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4549661131034253</v>
+        <v>0.4540044864893337</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>65643</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51005</v>
+        <v>51455</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82860</v>
+        <v>82315</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05923624750583189</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04602696904076077</v>
+        <v>0.04643252125732357</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07477248616277055</v>
+        <v>0.07428065088128487</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1483,19 +1483,19 @@
         <v>20638</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12582</v>
+        <v>12962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30606</v>
+        <v>31353</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02104315302485963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01282861153862752</v>
+        <v>0.01321606186182618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03120577834609509</v>
+        <v>0.03196782570378896</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>87</v>
@@ -1504,19 +1504,19 @@
         <v>86282</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>69210</v>
+        <v>70529</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>105716</v>
+        <v>106176</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04130428550836045</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03313203394276932</v>
+        <v>0.03376332712450096</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05060777464948431</v>
+        <v>0.05082811327074698</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>167309</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>144979</v>
+        <v>142935</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>191581</v>
+        <v>190106</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1509796575309801</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1308283291992633</v>
+        <v>0.1289843021165851</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1728824814854586</v>
+        <v>0.1715508636179586</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>60</v>
@@ -1557,16 +1557,16 @@
         <v>45647</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>76585</v>
+        <v>75407</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06011900056460696</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04654201646263602</v>
+        <v>0.04654180382764352</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07808723321663308</v>
+        <v>0.07688575371081567</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>223</v>
@@ -1575,19 +1575,19 @@
         <v>226272</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>196969</v>
+        <v>197661</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>257375</v>
+        <v>256161</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1083198555450998</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09429199415149864</v>
+        <v>0.0946234297243209</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1232093682633277</v>
+        <v>0.1226277923431523</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>485407</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>452182</v>
+        <v>451515</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>515250</v>
+        <v>518149</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4380297534294442</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4080476381771095</v>
+        <v>0.4074460204549624</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4649601502629799</v>
+        <v>0.4675763546947221</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>515</v>
@@ -1625,19 +1625,19 @@
         <v>518282</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>487109</v>
+        <v>486194</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>550583</v>
+        <v>548557</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5284454692438751</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4966604060057968</v>
+        <v>0.4957278135340287</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5613797394564939</v>
+        <v>0.5593139033501685</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>997</v>
@@ -1646,19 +1646,19 @@
         <v>1003689</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>962624</v>
+        <v>954563</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1054515</v>
+        <v>1046850</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4804806520013391</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.460822144369793</v>
+        <v>0.4569633854798079</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5048116965219799</v>
+        <v>0.5011423059629384</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>389800</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>361738</v>
+        <v>357963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>422306</v>
+        <v>420126</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3517543415337439</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3264318750690103</v>
+        <v>0.3230247466479542</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3810875189557956</v>
+        <v>0.3791206047431294</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>372</v>
@@ -1696,19 +1696,19 @@
         <v>382884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>354442</v>
+        <v>353767</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>414936</v>
+        <v>415318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3903923771666583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3613921035559658</v>
+        <v>0.3607036372400122</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4230729437699464</v>
+        <v>0.4234622228380042</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>752</v>
@@ -1717,19 +1717,19 @@
         <v>772684</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>727135</v>
+        <v>732639</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>818635</v>
+        <v>821422</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3698952069452006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3480901704921352</v>
+        <v>0.3507252644988731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3918924315273771</v>
+        <v>0.3932269824897187</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>38854</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28367</v>
+        <v>28763</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51804</v>
+        <v>54218</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08813743435969322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06434854261483387</v>
+        <v>0.0652478881861492</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1175141640684903</v>
+        <v>0.1229910656222141</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1842,19 +1842,19 @@
         <v>13293</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7117</v>
+        <v>7671</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22422</v>
+        <v>23628</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03994991079686731</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0213885574089292</v>
+        <v>0.02305360891370015</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06738657026269626</v>
+        <v>0.07100971801322049</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -1863,19 +1863,19 @@
         <v>52147</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38946</v>
+        <v>39899</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67260</v>
+        <v>68854</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06741025979278668</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05034603952755593</v>
+        <v>0.05157737749911566</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08694794210679835</v>
+        <v>0.08900826526329172</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>67189</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52798</v>
+        <v>51710</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>83109</v>
+        <v>84193</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1524150705967099</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.119770155688689</v>
+        <v>0.1173005744038405</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1885279497427101</v>
+        <v>0.1909862007986958</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -1913,19 +1913,19 @@
         <v>31316</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21798</v>
+        <v>21100</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41662</v>
+        <v>42268</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09411487094897107</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06550909323546253</v>
+        <v>0.06341330082914848</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1252078085344429</v>
+        <v>0.1270311848013424</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>97</v>
@@ -1934,19 +1934,19 @@
         <v>98505</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>81404</v>
+        <v>82124</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>119899</v>
+        <v>118005</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1273380729417319</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1052315306450586</v>
+        <v>0.1061618712654044</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1549936278130945</v>
+        <v>0.1525458895629136</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>183312</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>161683</v>
+        <v>161821</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>203068</v>
+        <v>203957</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4158325742881597</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3667675985902816</v>
+        <v>0.3670813438642309</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4606477116139342</v>
+        <v>0.4626641480522738</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>147</v>
@@ -1984,19 +1984,19 @@
         <v>147425</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>130682</v>
+        <v>130426</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>165629</v>
+        <v>165484</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4430619048674513</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3927441019014392</v>
+        <v>0.3919747009389201</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4977721152430089</v>
+        <v>0.4973351453286843</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>329</v>
@@ -2005,19 +2005,19 @@
         <v>330736</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>303270</v>
+        <v>303967</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>358536</v>
+        <v>358849</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4275448816766302</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3920395239665542</v>
+        <v>0.3929402245040998</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4634821655007044</v>
+        <v>0.4638859376133558</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>151476</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>133490</v>
+        <v>130364</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>173187</v>
+        <v>172800</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3436149207554371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3028147755951374</v>
+        <v>0.2957242635695649</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3928657362919221</v>
+        <v>0.3919865926178818</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>139</v>
@@ -2055,19 +2055,19 @@
         <v>140707</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>123265</v>
+        <v>122268</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>158601</v>
+        <v>159076</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4228733133867103</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3704519908429327</v>
+        <v>0.3674561226630456</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.476650189894732</v>
+        <v>0.478077277563762</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>284</v>
@@ -2076,19 +2076,19 @@
         <v>292183</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>264072</v>
+        <v>266430</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>317566</v>
+        <v>317697</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3777067855888512</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3413671519435837</v>
+        <v>0.3444162997035451</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4105198311807406</v>
+        <v>0.410688969296365</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>147071</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>124681</v>
+        <v>125717</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>173464</v>
+        <v>172228</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04612713142460423</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03910474613977178</v>
+        <v>0.03942969490787012</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05440477360086165</v>
+        <v>0.05401711572846891</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>55</v>
@@ -2201,19 +2201,19 @@
         <v>54018</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>41530</v>
+        <v>40748</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>69131</v>
+        <v>71252</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01657675825539584</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01274446806585635</v>
+        <v>0.01250456157233349</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02121458577009799</v>
+        <v>0.02186554151607301</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>200</v>
@@ -2222,19 +2222,19 @@
         <v>201089</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>172942</v>
+        <v>173069</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>229509</v>
+        <v>229433</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03119089949674065</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02682502810628946</v>
+        <v>0.02684476075586149</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03559913871596729</v>
+        <v>0.03558735983443916</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>395200</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>360017</v>
+        <v>359638</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>434775</v>
+        <v>437115</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1239497694037972</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1129150719474387</v>
+        <v>0.1127960688828989</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1363620886077247</v>
+        <v>0.1370958528423996</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>190</v>
@@ -2272,19 +2272,19 @@
         <v>189772</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>164693</v>
+        <v>163970</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>217481</v>
+        <v>217095</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05823607914872765</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05054023270810588</v>
+        <v>0.05031826589790257</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06673926584555046</v>
+        <v>0.06662108354240801</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>577</v>
@@ -2293,19 +2293,19 @@
         <v>584972</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>539808</v>
+        <v>536449</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>630404</v>
+        <v>629959</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09073479398317372</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08372953690093181</v>
+        <v>0.08320850997914631</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09778179592069776</v>
+        <v>0.09771270802331375</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>1342899</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1287861</v>
+        <v>1289363</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1403084</v>
+        <v>1394883</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4211841565979188</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4039222750595639</v>
+        <v>0.4043931862687314</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4400603639423718</v>
+        <v>0.4374883521284016</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1502</v>
@@ -2343,19 +2343,19 @@
         <v>1525464</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1471138</v>
+        <v>1468157</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1581859</v>
+        <v>1581175</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4681260202067017</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4514549509314374</v>
+        <v>0.4505401936369045</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4854324768231449</v>
+        <v>0.4852223474440608</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2832</v>
@@ -2364,19 +2364,19 @@
         <v>2868362</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2790392</v>
+        <v>2789682</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2949199</v>
+        <v>2952167</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4449109149021931</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4328170035750505</v>
+        <v>0.4327069187409265</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4574495649158257</v>
+        <v>0.4579099295967881</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>1303219</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1245341</v>
+        <v>1246120</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1359584</v>
+        <v>1364327</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4087389425736798</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3905863222040892</v>
+        <v>0.390830483431325</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4264173557308442</v>
+        <v>0.4279048693026869</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1432</v>
@@ -2414,19 +2414,19 @@
         <v>1489407</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1432195</v>
+        <v>1435288</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1546611</v>
+        <v>1545301</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4570611423891748</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4395043296728908</v>
+        <v>0.4404533303521466</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4746156162021035</v>
+        <v>0.4742136653699034</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2698</v>
@@ -2435,19 +2435,19 @@
         <v>2792625</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2711004</v>
+        <v>2712905</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2877191</v>
+        <v>2876829</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4331633916178925</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4205031114801923</v>
+        <v>0.420798034505273</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4462804411667751</v>
+        <v>0.446224253919539</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>73315</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56946</v>
+        <v>57609</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90047</v>
+        <v>90880</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07022947267260247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05454983046482585</v>
+        <v>0.05518473037756634</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08625723082908446</v>
+        <v>0.08705477829032082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2800,19 +2800,19 @@
         <v>16375</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10200</v>
+        <v>9427</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26463</v>
+        <v>26346</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01462130359897831</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009107283241080509</v>
+        <v>0.008417284121916137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02362920334642268</v>
+        <v>0.02352469951178154</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -2821,19 +2821,19 @@
         <v>89690</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71781</v>
+        <v>71607</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110612</v>
+        <v>108192</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04144892558445441</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03317258379629613</v>
+        <v>0.03309229330538989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05111770336898689</v>
+        <v>0.0499995568377088</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>136958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>115855</v>
+        <v>117226</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160308</v>
+        <v>161085</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1311939470035693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1109795348079378</v>
+        <v>0.1122921556395336</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1535613860071773</v>
+        <v>0.1543051300333152</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -2871,19 +2871,19 @@
         <v>57531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43801</v>
+        <v>43770</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74489</v>
+        <v>75326</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05137025065245276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03911038474447529</v>
+        <v>0.0390829641503575</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06651254906365811</v>
+        <v>0.0672595218292132</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>182</v>
@@ -2892,19 +2892,19 @@
         <v>194489</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>169763</v>
+        <v>168115</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>225992</v>
+        <v>222458</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0898804189760295</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07845374964546119</v>
+        <v>0.07769193469836591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1044391273871263</v>
+        <v>0.1028057791838301</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>564270</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>533319</v>
+        <v>531621</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>601743</v>
+        <v>595933</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5405225944361236</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5108738160820795</v>
+        <v>0.509247591819897</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5764177321409081</v>
+        <v>0.5708524076043217</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>596</v>
@@ -2942,19 +2942,19 @@
         <v>646859</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>612191</v>
+        <v>612765</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>681922</v>
+        <v>680234</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.577589443277826</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.546633832630848</v>
+        <v>0.5471469497390248</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6088980431458154</v>
+        <v>0.6073909245822567</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1122</v>
@@ -2963,19 +2963,19 @@
         <v>1211129</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1162591</v>
+        <v>1160099</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1257325</v>
+        <v>1254664</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5597069014591701</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5372757439325093</v>
+        <v>0.5361240913756905</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5810558501853327</v>
+        <v>0.5798261646355457</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>269392</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>241616</v>
+        <v>239377</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>299944</v>
+        <v>299412</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2580539858877046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.23144750678506</v>
+        <v>0.2293029513261393</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2873208925918305</v>
+        <v>0.2868114138053995</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>369</v>
@@ -3013,19 +3013,19 @@
         <v>399164</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>364431</v>
+        <v>367329</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>434662</v>
+        <v>433901</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3564190024707429</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3254061733159963</v>
+        <v>0.3279930698675637</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3881158964240067</v>
+        <v>0.3874366685794854</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>619</v>
@@ -3034,19 +3034,19 @@
         <v>668555</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>622520</v>
+        <v>624467</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>714055</v>
+        <v>715891</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.308963753980346</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2876891265840082</v>
+        <v>0.2885889612914204</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3299908722281126</v>
+        <v>0.3308393076616293</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>76429</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61556</v>
+        <v>61104</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>97225</v>
+        <v>93540</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0782229069287928</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06300001561294928</v>
+        <v>0.06253815978365014</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09950616195113958</v>
+        <v>0.09573530287329618</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -3159,19 +3159,19 @@
         <v>16498</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9851</v>
+        <v>9022</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26682</v>
+        <v>26363</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01509150973825692</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009011350827871165</v>
+        <v>0.008253426658636475</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02440773021201401</v>
+        <v>0.02411654110168409</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>92</v>
@@ -3180,19 +3180,19 @@
         <v>92927</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>74965</v>
+        <v>76427</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>113424</v>
+        <v>115555</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04488711471129543</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03621103941217967</v>
+        <v>0.03691716082454057</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05478789897738118</v>
+        <v>0.05581712388145609</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>159107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>135030</v>
+        <v>136656</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>183939</v>
+        <v>182479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1628403686316282</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1381987483381815</v>
+        <v>0.1398627677595524</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1882546694511238</v>
+        <v>0.1867607449143061</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -3230,19 +3230,19 @@
         <v>60471</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46340</v>
+        <v>46549</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77161</v>
+        <v>77689</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0553171161566863</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0423902930001506</v>
+        <v>0.04258164668228648</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07058477334800398</v>
+        <v>0.07106790633435454</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>214</v>
@@ -3251,19 +3251,19 @@
         <v>219578</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>192572</v>
+        <v>192442</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>249426</v>
+        <v>247008</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1060639790289043</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09301940689202197</v>
+        <v>0.09295667193865571</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.120481674038709</v>
+        <v>0.119313896128282</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>514770</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>483429</v>
+        <v>482820</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>546747</v>
+        <v>547232</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5268486800675108</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4947723886989959</v>
+        <v>0.4941496912679416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5595762646860946</v>
+        <v>0.560073115943894</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>638</v>
@@ -3301,19 +3301,19 @@
         <v>689898</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>655434</v>
+        <v>656194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>718367</v>
+        <v>722608</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6311011597489458</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.599574573177899</v>
+        <v>0.6002702715548864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6571437465416144</v>
+        <v>0.661023929843366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1122</v>
@@ -3322,19 +3322,19 @@
         <v>1204667</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1160223</v>
+        <v>1157702</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1251638</v>
+        <v>1251256</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5818979765424537</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5604298911408959</v>
+        <v>0.5592123806285481</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6045869164978004</v>
+        <v>0.6044021510936826</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>226767</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>201836</v>
+        <v>198814</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>255553</v>
+        <v>253776</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2320880443720682</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2065717389826462</v>
+        <v>0.2034792274148055</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2615494721720319</v>
+        <v>0.2597308183961181</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>306</v>
@@ -3372,19 +3372,19 @@
         <v>326299</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>298199</v>
+        <v>296337</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>358237</v>
+        <v>358090</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.298490214356111</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2727852266764822</v>
+        <v>0.2710820913896283</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3277060824465226</v>
+        <v>0.3275715380444254</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>515</v>
@@ -3393,19 +3393,19 @@
         <v>553066</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>511142</v>
+        <v>510534</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>592573</v>
+        <v>596799</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2671509297173466</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2469000886766438</v>
+        <v>0.2466065233388064</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2862345659406154</v>
+        <v>0.2882758299761854</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>76309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60528</v>
+        <v>59648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95580</v>
+        <v>94663</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08630116115209187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06845356428781946</v>
+        <v>0.06745798316014597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.108095090522905</v>
+        <v>0.107058383077494</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -3518,19 +3518,19 @@
         <v>15653</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9337</v>
+        <v>9410</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26418</v>
+        <v>26021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0178731021935528</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01066098408355555</v>
+        <v>0.01074412667611909</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03016404988159814</v>
+        <v>0.02971177731551311</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>88</v>
@@ -3539,19 +3539,19 @@
         <v>91962</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>74838</v>
+        <v>74751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114307</v>
+        <v>113680</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05225085922661317</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04252106935582264</v>
+        <v>0.04247195747669062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06494692305435737</v>
+        <v>0.06459013650215562</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>182791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>157661</v>
+        <v>157615</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>208897</v>
+        <v>206847</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2067263191915753</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1783058814509529</v>
+        <v>0.1782534407294743</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2362510156842615</v>
+        <v>0.2339321926266967</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>60</v>
@@ -3589,19 +3589,19 @@
         <v>65695</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>51136</v>
+        <v>49579</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>82495</v>
+        <v>83602</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07501127525933921</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05838780914787603</v>
+        <v>0.05660988403939048</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09419441202950342</v>
+        <v>0.09545831594223793</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>233</v>
@@ -3610,19 +3610,19 @@
         <v>248486</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>220179</v>
+        <v>219035</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>281361</v>
+        <v>280823</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1411839513050658</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.125100851210075</v>
+        <v>0.1244509577377831</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1598626907867278</v>
+        <v>0.1595570609706738</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>440486</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>406135</v>
+        <v>406576</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>470395</v>
+        <v>470907</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4981643403346755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4593155624301986</v>
+        <v>0.4598146545672227</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5319897650684402</v>
+        <v>0.5325688581483412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>516</v>
@@ -3660,19 +3660,19 @@
         <v>550163</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>517605</v>
+        <v>523085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>576309</v>
+        <v>579317</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6281858194462482</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5910108209025851</v>
+        <v>0.5972677602989793</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6580399958739539</v>
+        <v>0.6614749462872228</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>928</v>
@@ -3681,19 +3681,19 @@
         <v>990648</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>950026</v>
+        <v>950589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1037966</v>
+        <v>1033393</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5628639779968936</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5397834120023506</v>
+        <v>0.5401030172084097</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5897488265493213</v>
+        <v>0.5871502822828035</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>184632</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160397</v>
+        <v>159505</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210463</v>
+        <v>212241</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2088081793216574</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1814001131802293</v>
+        <v>0.1803906533179484</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2380213090363151</v>
+        <v>0.2400325508627493</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>230</v>
@@ -3731,19 +3731,19 @@
         <v>244286</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>218894</v>
+        <v>216066</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>273101</v>
+        <v>268988</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2789298031008598</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.249937289173669</v>
+        <v>0.2467084672449929</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3118316562048761</v>
+        <v>0.3071354736267294</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>401</v>
@@ -3752,19 +3752,19 @@
         <v>428918</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>392186</v>
+        <v>390609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>465685</v>
+        <v>466147</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2437012114714275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2228312922630974</v>
+        <v>0.2219353907497255</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2645915941288256</v>
+        <v>0.2648541622070205</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>59357</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45686</v>
+        <v>46361</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78259</v>
+        <v>74475</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1182031197157711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09097878513535836</v>
+        <v>0.09232219171990409</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1558446308404264</v>
+        <v>0.1483089263966525</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -3877,19 +3877,19 @@
         <v>20730</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12014</v>
+        <v>12066</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31544</v>
+        <v>31303</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04578893791458451</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02653608093326079</v>
+        <v>0.02665121312997782</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06967310738916756</v>
+        <v>0.06914290837227469</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -3898,19 +3898,19 @@
         <v>80087</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63106</v>
+        <v>64123</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100270</v>
+        <v>98319</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08387013107905585</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06608656002380692</v>
+        <v>0.06715197491704823</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1050064465198264</v>
+        <v>0.1029632256256952</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>120369</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98329</v>
+        <v>100172</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141336</v>
+        <v>140525</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2397018412731821</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1958122333018368</v>
+        <v>0.1994821297744065</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2814541179149905</v>
+        <v>0.2798398635904898</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -3948,19 +3948,19 @@
         <v>48904</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36061</v>
+        <v>35584</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64835</v>
+        <v>64560</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1080182320638889</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07965083547550003</v>
+        <v>0.0785986718622283</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1432068119115237</v>
+        <v>0.1425989069957189</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>149</v>
@@ -3969,19 +3969,19 @@
         <v>169273</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>144931</v>
+        <v>143213</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>193912</v>
+        <v>195115</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1772680507342377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1517770996807335</v>
+        <v>0.1499772664519376</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.203071398955628</v>
+        <v>0.2043313012449477</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>236724</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>214356</v>
+        <v>213336</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>262357</v>
+        <v>258786</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4714099879032986</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4268657443410774</v>
+        <v>0.424834351242574</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5224539978395321</v>
+        <v>0.5153432462640307</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>236</v>
@@ -4019,19 +4019,19 @@
         <v>260433</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>238270</v>
+        <v>239639</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>282546</v>
+        <v>281596</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5752419469104145</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5262897110476882</v>
+        <v>0.529313812118957</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.624084461011806</v>
+        <v>0.6219867985842855</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>450</v>
@@ -4040,19 +4040,19 @@
         <v>497156</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>464129</v>
+        <v>462786</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>527267</v>
+        <v>531582</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5206387629864244</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.486051081349607</v>
+        <v>0.4846446265121326</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5521716227325937</v>
+        <v>0.5566900104161082</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>85712</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69020</v>
+        <v>69591</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103992</v>
+        <v>104756</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1706850511077482</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1374462150358051</v>
+        <v>0.1385820126876226</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2070878078003788</v>
+        <v>0.2086102282098408</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -4090,19 +4090,19 @@
         <v>122669</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>103037</v>
+        <v>103817</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142500</v>
+        <v>142958</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.270950883111112</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2275872699386927</v>
+        <v>0.2293095015998999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3147536689719628</v>
+        <v>0.3157655180393173</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>197</v>
@@ -4111,19 +4111,19 @@
         <v>208381</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>182275</v>
+        <v>182663</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>234913</v>
+        <v>237024</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.218223055200282</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1908844675711362</v>
+        <v>0.1912906021570651</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2460086946125626</v>
+        <v>0.2482198526029422</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>285411</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>254551</v>
+        <v>253828</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>318312</v>
+        <v>317239</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08376229556790322</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07470573578764686</v>
+        <v>0.07449358912432748</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09341821715934824</v>
+        <v>0.0931032963146836</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>63</v>
@@ -4236,19 +4236,19 @@
         <v>69256</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55283</v>
+        <v>53103</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>88639</v>
+        <v>87545</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01955480821310801</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01560962882073474</v>
+        <v>0.0149938741844681</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02502790419662677</v>
+        <v>0.02471899916945144</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>342</v>
@@ -4257,19 +4257,19 @@
         <v>354666</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>320374</v>
+        <v>318096</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>392424</v>
+        <v>391635</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05103839136173905</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04610352446684494</v>
+        <v>0.04577572517391845</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05647195447417871</v>
+        <v>0.05635834906588601</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>599225</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>557193</v>
+        <v>550837</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>646597</v>
+        <v>644330</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1758605598454755</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1635250530283234</v>
+        <v>0.1616595953617932</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.189763189266882</v>
+        <v>0.1890980966130361</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>215</v>
@@ -4307,19 +4307,19 @@
         <v>232600</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>203867</v>
+        <v>202935</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>263739</v>
+        <v>263987</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0656760702361906</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05756305116697507</v>
+        <v>0.05730002273878272</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0744683113053837</v>
+        <v>0.07453834215946137</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>778</v>
@@ -4328,19 +4328,19 @@
         <v>831825</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>774395</v>
+        <v>782918</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>890583</v>
+        <v>891454</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1197040766762264</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1114396565655971</v>
+        <v>0.1126660765138919</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1281596259183301</v>
+        <v>0.1282849741225637</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>1756250</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1691011</v>
+        <v>1702228</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1813803</v>
+        <v>1823774</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5154241728168718</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.496278055365226</v>
+        <v>0.4995697888464663</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5323150287981162</v>
+        <v>0.535241141005802</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1986</v>
@@ -4378,19 +4378,19 @@
         <v>2147351</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2090619</v>
+        <v>2094867</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2208878</v>
+        <v>2215009</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6063181865404617</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5902994953172204</v>
+        <v>0.5914989856107391</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6236907988087869</v>
+        <v>0.6254218680930311</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3622</v>
@@ -4399,19 +4399,19 @@
         <v>3903601</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3822235</v>
+        <v>3815314</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3984805</v>
+        <v>3988369</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5617490972227851</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5500400901743205</v>
+        <v>0.5490441516849072</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5734348531287909</v>
+        <v>0.5739477598957381</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>766502</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>716549</v>
+        <v>716142</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>815909</v>
+        <v>814674</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2249529717697495</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2102927376663995</v>
+        <v>0.2101733413622704</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2394528563122536</v>
+        <v>0.2390905978825546</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1019</v>
@@ -4449,19 +4449,19 @@
         <v>1092417</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1038527</v>
+        <v>1034542</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1156563</v>
+        <v>1148862</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3084509350102398</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2932345557880362</v>
+        <v>0.2921095960829501</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3265629171935563</v>
+        <v>0.32438848130911</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1732</v>
@@ -4470,19 +4470,19 @@
         <v>1858919</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1786279</v>
+        <v>1779506</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1937290</v>
+        <v>1939890</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2675084347392494</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2570551627446389</v>
+        <v>0.2560804893101073</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2787864204344456</v>
+        <v>0.2791605723189758</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>64238</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50122</v>
+        <v>49962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79414</v>
+        <v>80856</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05694845110044024</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04443441092101988</v>
+        <v>0.0442924754984696</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07040229544033529</v>
+        <v>0.07168135816013703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -4835,19 +4835,19 @@
         <v>21072</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13069</v>
+        <v>13470</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31587</v>
+        <v>31434</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01672932106907909</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01037601531885058</v>
+        <v>0.01069392648098627</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02507812787008012</v>
+        <v>0.02495639702821017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -4856,19 +4856,19 @@
         <v>85309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66799</v>
+        <v>67108</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104817</v>
+        <v>104831</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03573077245715426</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02797794048384626</v>
+        <v>0.02810726486033484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04390153594817525</v>
+        <v>0.04390726436463865</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>129329</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108328</v>
+        <v>109197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>154927</v>
+        <v>152652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.114653904386361</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0960360882639309</v>
+        <v>0.09680618137266865</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1373473920256857</v>
+        <v>0.1353301209901088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -4906,19 +4906,19 @@
         <v>78661</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64211</v>
+        <v>63142</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97299</v>
+        <v>95954</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06245120606097076</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05097889511537312</v>
+        <v>0.05013042602598663</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07724828547478234</v>
+        <v>0.07618022367293423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>199</v>
@@ -4927,19 +4927,19 @@
         <v>207990</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>180487</v>
+        <v>181110</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>237202</v>
+        <v>235915</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0871142714674774</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07559479935304005</v>
+        <v>0.07585583480573507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0993490670134802</v>
+        <v>0.09881035385024575</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>491069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>459552</v>
+        <v>455163</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>528409</v>
+        <v>524166</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4353458537287712</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4074053702421185</v>
+        <v>0.4035142580908699</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4684487512556241</v>
+        <v>0.464687588006542</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>549</v>
@@ -4977,19 +4977,19 @@
         <v>565135</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>531289</v>
+        <v>530731</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>602161</v>
+        <v>602547</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4486758502809793</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4218046372362547</v>
+        <v>0.4213620783624352</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4780718061614913</v>
+        <v>0.4783785090258477</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1012</v>
@@ -4998,19 +4998,19 @@
         <v>1056203</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1010482</v>
+        <v>1007842</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1101907</v>
+        <v>1106908</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4423781187961737</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.423228097885083</v>
+        <v>0.4221225094963442</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4615206755819611</v>
+        <v>0.4636149544675106</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>443361</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>410049</v>
+        <v>411166</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>477235</v>
+        <v>479949</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3930517907844276</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3635193893781678</v>
+        <v>0.364510109709821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4230816675226238</v>
+        <v>0.4254876830023421</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>541</v>
@@ -5048,19 +5048,19 @@
         <v>594694</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>558716</v>
+        <v>558602</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>631058</v>
+        <v>632987</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4721436225889709</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4435798472577342</v>
+        <v>0.4434897271911378</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5010138731468586</v>
+        <v>0.5025456445746697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>960</v>
@@ -5069,19 +5069,19 @@
         <v>1038055</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>984893</v>
+        <v>987118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1084710</v>
+        <v>1085702</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4347768372791946</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4125104268228512</v>
+        <v>0.413442408870106</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4543178232944268</v>
+        <v>0.4547331963585655</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>74925</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61254</v>
+        <v>61083</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>93346</v>
+        <v>95299</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08244173051679385</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06739955400071362</v>
+        <v>0.06721074097111507</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1027103242586088</v>
+        <v>0.1048598927426617</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -5194,19 +5194,19 @@
         <v>24552</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15540</v>
+        <v>16418</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35242</v>
+        <v>35682</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02439438519784088</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01544018414103461</v>
+        <v>0.01631231286163043</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03501527005016955</v>
+        <v>0.03545214369666735</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>99</v>
@@ -5215,19 +5215,19 @@
         <v>99477</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>81219</v>
+        <v>81300</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>120232</v>
+        <v>120653</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0519383019179837</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04240550253620919</v>
+        <v>0.04244754561944015</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06277429579281334</v>
+        <v>0.06299445347238927</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>165135</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142125</v>
+        <v>142210</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189041</v>
+        <v>190159</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1817012789046017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1563837832330284</v>
+        <v>0.1564766179200248</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.208006371308407</v>
+        <v>0.2092366334877978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -5265,19 +5265,19 @@
         <v>117295</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97785</v>
+        <v>99075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137875</v>
+        <v>139769</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1165405388305276</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09715623352636267</v>
+        <v>0.0984378526404554</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1369881286943115</v>
+        <v>0.1388694490463868</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>270</v>
@@ -5286,19 +5286,19 @@
         <v>282430</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>251629</v>
+        <v>249899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>312216</v>
+        <v>315029</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.147459816674525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1313783216718725</v>
+        <v>0.1304753036046925</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1630116989221174</v>
+        <v>0.1644802160262099</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>370286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>339617</v>
+        <v>340963</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400518</v>
+        <v>399011</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4074342703512652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3736883287686996</v>
+        <v>0.3751687812620817</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4406983143346619</v>
+        <v>0.4390403255742727</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>423</v>
@@ -5336,19 +5336,19 @@
         <v>445981</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>413981</v>
+        <v>410989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>477839</v>
+        <v>480899</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.443111770887344</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4113173782316001</v>
+        <v>0.4083446234962727</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4747649808700211</v>
+        <v>0.4778054057651469</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>782</v>
@@ -5357,19 +5357,19 @@
         <v>816267</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>774660</v>
+        <v>774056</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>859658</v>
+        <v>858493</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4261825194607892</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4044587120131185</v>
+        <v>0.4041436025396728</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4488372238980339</v>
+        <v>0.4482290332090286</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>298479</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>270349</v>
+        <v>270228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>327728</v>
+        <v>326845</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3284227202273392</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2974710974692603</v>
+        <v>0.2973376483911443</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3606065121093493</v>
+        <v>0.3596345836990423</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>389</v>
@@ -5407,19 +5407,19 @@
         <v>418647</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>387219</v>
+        <v>386320</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>449937</v>
+        <v>452421</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4159533050842875</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3847280019101935</v>
+        <v>0.3838349942285732</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4470425744137381</v>
+        <v>0.4495100384622273</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>681</v>
@@ -5428,19 +5428,19 @@
         <v>717125</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>677318</v>
+        <v>671376</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>761375</v>
+        <v>758352</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3744193619467021</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3536353666722413</v>
+        <v>0.3505329102541959</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3975225346133046</v>
+        <v>0.3959444104770223</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>61460</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46788</v>
+        <v>47664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79007</v>
+        <v>79967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07460913458987674</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05679801520315463</v>
+        <v>0.05786121731900898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09591029221305836</v>
+        <v>0.09707547414728557</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -5553,19 +5553,19 @@
         <v>12901</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7075</v>
+        <v>6967</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21797</v>
+        <v>21115</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0167316298917316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009175927479417742</v>
+        <v>0.009035198218597539</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02826915844449536</v>
+        <v>0.02738487388167468</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -5574,19 +5574,19 @@
         <v>74361</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>56670</v>
+        <v>58080</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>93299</v>
+        <v>92518</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04662666034125756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03553354106383367</v>
+        <v>0.03641790188257103</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05850108545426496</v>
+        <v>0.05801164386678342</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>171042</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>148121</v>
+        <v>147668</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>198974</v>
+        <v>194982</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2076356009694369</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.179810482587035</v>
+        <v>0.1792610306869785</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.241544285441491</v>
+        <v>0.2366980930220642</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>75</v>
@@ -5624,19 +5624,19 @@
         <v>76842</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>61788</v>
+        <v>61487</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>94259</v>
+        <v>94744</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09965732236124816</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08013370273194186</v>
+        <v>0.07974401119635977</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1222457002594769</v>
+        <v>0.1228749719101524</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>237</v>
@@ -5645,19 +5645,19 @@
         <v>247883</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>219293</v>
+        <v>220334</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>277601</v>
+        <v>281086</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1554305272309918</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1375034157715907</v>
+        <v>0.1381561098846125</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1740645785700863</v>
+        <v>0.1762495786581701</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>328532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>298917</v>
+        <v>299340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>357127</v>
+        <v>356983</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3988206754856715</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3628697588121372</v>
+        <v>0.3633832740495173</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.433532788406642</v>
+        <v>0.433359041624699</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>343</v>
@@ -5695,19 +5695,19 @@
         <v>364322</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>336052</v>
+        <v>337881</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>393524</v>
+        <v>391133</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4724957880243554</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4358322350464727</v>
+        <v>0.4382033169060306</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5103676022404502</v>
+        <v>0.5072676504748628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>662</v>
@@ -5716,19 +5716,19 @@
         <v>692854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>651629</v>
+        <v>654688</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>732454</v>
+        <v>731842</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4344409384899249</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4085913057715777</v>
+        <v>0.4105096662313448</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4592710288610103</v>
+        <v>0.4588875616230749</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>262725</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>235171</v>
+        <v>236393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>291419</v>
+        <v>289568</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3189345889550149</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2854854989464305</v>
+        <v>0.2869684766277542</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3537672380660633</v>
+        <v>0.3515204145661066</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>297</v>
@@ -5766,19 +5766,19 @@
         <v>316994</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>291055</v>
+        <v>290242</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>344082</v>
+        <v>345398</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4111152597226648</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3774745645575907</v>
+        <v>0.3764199705062422</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4462459041934255</v>
+        <v>0.4479528818180076</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>549</v>
@@ -5787,19 +5787,19 @@
         <v>579719</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>543034</v>
+        <v>542682</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>618808</v>
+        <v>618814</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3635018739378257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.340499243045354</v>
+        <v>0.3402783687748083</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3880117130031813</v>
+        <v>0.3880155736092405</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>40943</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29375</v>
+        <v>30280</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55184</v>
+        <v>55453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08080348002941944</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0579728340682686</v>
+        <v>0.05975822509388353</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1089080239200429</v>
+        <v>0.109439543633475</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -5912,19 +5912,19 @@
         <v>16345</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8934</v>
+        <v>8974</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26477</v>
+        <v>26113</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03337748142823016</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01824311659660323</v>
+        <v>0.01832477608872542</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05406813189646224</v>
+        <v>0.05332552251955044</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -5933,19 +5933,19 @@
         <v>57288</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43342</v>
+        <v>43858</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73056</v>
+        <v>73601</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05749513853533848</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0434986129669199</v>
+        <v>0.04401635093654999</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07331993212677154</v>
+        <v>0.07386704754676716</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>114396</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94498</v>
+        <v>97805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>134070</v>
+        <v>136046</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2257669331707693</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1864968533625404</v>
+        <v>0.1930237857216832</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.26459406064499</v>
+        <v>0.2684939411984768</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -5983,19 +5983,19 @@
         <v>68372</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>54824</v>
+        <v>53994</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86986</v>
+        <v>85193</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1396203739907996</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1119551241424168</v>
+        <v>0.1102591611567851</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1776316740973219</v>
+        <v>0.1739700096937355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>170</v>
@@ -6004,19 +6004,19 @@
         <v>182768</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>156609</v>
+        <v>160046</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>207397</v>
+        <v>207186</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1834286908747718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1571746807832006</v>
+        <v>0.1606246427540766</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2081472363634568</v>
+        <v>0.2079353021476838</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>218498</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>193200</v>
+        <v>195498</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>242248</v>
+        <v>241571</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4312160807304324</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3812907050728593</v>
+        <v>0.3858245206591434</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4780882843275593</v>
+        <v>0.4767533885389275</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>214</v>
@@ -6054,19 +6054,19 @@
         <v>229135</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>207019</v>
+        <v>208018</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>251870</v>
+        <v>251410</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4679101792333642</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4227489984339079</v>
+        <v>0.4247876968291375</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5143382786659288</v>
+        <v>0.5133983513560395</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>415</v>
@@ -6075,19 +6075,19 @@
         <v>447632</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>414152</v>
+        <v>413945</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>480441</v>
+        <v>480014</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4492500410886721</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4156490324228652</v>
+        <v>0.4154412944221487</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4821782939522655</v>
+        <v>0.481749744632108</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>132864</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>114503</v>
+        <v>112825</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>156465</v>
+        <v>154040</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2622135060693788</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2259773980174364</v>
+        <v>0.2226665821900922</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3087923436995685</v>
+        <v>0.3040066901943411</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>162</v>
@@ -6125,19 +6125,19 @@
         <v>175847</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>154140</v>
+        <v>154426</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>197160</v>
+        <v>199331</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3590919653476061</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3147647924992719</v>
+        <v>0.3153497886347645</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4026156425507172</v>
+        <v>0.4070484909764849</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>288</v>
@@ -6146,19 +6146,19 @@
         <v>308710</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>279648</v>
+        <v>279063</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>339829</v>
+        <v>342079</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3098261295012176</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2806589265338751</v>
+        <v>0.280072088117534</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3410579729206499</v>
+        <v>0.3433160054267054</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>241566</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>214067</v>
+        <v>211538</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>273261</v>
+        <v>273659</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07173914535205025</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0635724912218464</v>
+        <v>0.06282156308206858</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0811518348353775</v>
+        <v>0.08127011257794621</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>75</v>
@@ -6271,19 +6271,19 @@
         <v>74870</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>58317</v>
+        <v>59137</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>92503</v>
+        <v>91481</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02122888883765845</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01653546576316878</v>
+        <v>0.01676799148003354</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02622860020220442</v>
+        <v>0.02593884547463549</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>302</v>
@@ -6292,19 +6292,19 @@
         <v>316436</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>281548</v>
+        <v>284884</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>356244</v>
+        <v>355577</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04589968222970939</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04083910696936945</v>
+        <v>0.04132296767120671</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05167387866957111</v>
+        <v>0.05157719109054995</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>579902</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>536608</v>
+        <v>539257</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>622199</v>
+        <v>627061</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1722166258914354</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.159359419929745</v>
+        <v>0.1601462062939062</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1847778407103563</v>
+        <v>0.1862216752183394</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>329</v>
@@ -6342,19 +6342,19 @@
         <v>341170</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>306418</v>
+        <v>304348</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>377903</v>
+        <v>376222</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09673653384022184</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.086882914445586</v>
+        <v>0.08629592197126632</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1071519942330382</v>
+        <v>0.1066754151758638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>876</v>
@@ -6363,19 +6363,19 @@
         <v>921072</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>869344</v>
+        <v>866275</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>977926</v>
+        <v>975410</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1336033780162734</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.126100181996254</v>
+        <v>0.1256550247737062</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1418502132211746</v>
+        <v>0.141485266882117</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>1408385</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1352861</v>
+        <v>1350932</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1464183</v>
+        <v>1464352</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4182557341161574</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.401766599706964</v>
+        <v>0.4011937278444479</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4348263479883263</v>
+        <v>0.4348764896214135</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1529</v>
@@ -6413,19 +6413,19 @@
         <v>1604572</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1544897</v>
+        <v>1547222</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1665356</v>
+        <v>1665677</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.454966401196012</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4380460973202518</v>
+        <v>0.4387053312181198</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4722014536444438</v>
+        <v>0.4722924839303538</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2871</v>
@@ -6434,19 +6434,19 @@
         <v>3012957</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2931195</v>
+        <v>2929765</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3091247</v>
+        <v>3101073</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4370357600686322</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.425175940259509</v>
+        <v>0.4249685889809307</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4483918139905585</v>
+        <v>0.4498170732742465</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>1137429</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1087502</v>
+        <v>1081271</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1196124</v>
+        <v>1194867</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.337788494640357</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3229614506928125</v>
+        <v>0.3211107901077542</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3552193237323465</v>
+        <v>0.3548461558718115</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1389</v>
@@ -6484,19 +6484,19 @@
         <v>1506181</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1447865</v>
+        <v>1443958</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1572664</v>
+        <v>1562140</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4270681761261077</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.410533159952376</v>
+        <v>0.4094253091214411</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4459190706916296</v>
+        <v>0.442935217010846</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2478</v>
@@ -6505,19 +6505,19 @@
         <v>2643610</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2566279</v>
+        <v>2567086</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2724980</v>
+        <v>2729714</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3834611796853851</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3722441949846</v>
+        <v>0.3723611546029086</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.395263980573333</v>
+        <v>0.3959507795673429</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>32742</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22182</v>
+        <v>21131</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47088</v>
+        <v>46920</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06592455984112673</v>
+        <v>0.06592455984112672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04466260671813199</v>
+        <v>0.04254640048324177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09481007308403609</v>
+        <v>0.09447300132083758</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -6870,19 +6870,19 @@
         <v>26186</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18088</v>
+        <v>18326</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38282</v>
+        <v>37019</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04227811751246786</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02920349331497217</v>
+        <v>0.029587380790689</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06180769452416997</v>
+        <v>0.05976792654104714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -6891,19 +6891,19 @@
         <v>58928</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44550</v>
+        <v>44968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75705</v>
+        <v>76254</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05280126351668544</v>
+        <v>0.05280126351668545</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03991813986024527</v>
+        <v>0.04029302241899364</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06783453075922519</v>
+        <v>0.06832593160514135</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>53388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38714</v>
+        <v>37631</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74707</v>
+        <v>72324</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1074954671475059</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07794871573603342</v>
+        <v>0.07576915637520719</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1504196836653781</v>
+        <v>0.1456220901036014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -6941,19 +6941,19 @@
         <v>20396</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13849</v>
+        <v>13897</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28849</v>
+        <v>29961</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03293031066587229</v>
+        <v>0.0329303106658723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02236025914265711</v>
+        <v>0.02243728752837623</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04657799499490161</v>
+        <v>0.04837237555582143</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -6962,19 +6962,19 @@
         <v>73784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58132</v>
+        <v>58033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>97610</v>
+        <v>97129</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06611331627735804</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05208865265533494</v>
+        <v>0.0519994030844227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08746154545728975</v>
+        <v>0.08703086221839704</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>184711</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160768</v>
+        <v>162329</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208234</v>
+        <v>208754</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3719108589768257</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3237016380228043</v>
+        <v>0.326844625282304</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4192723342612143</v>
+        <v>0.4203201089092969</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>332</v>
@@ -7012,19 +7012,19 @@
         <v>248382</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>226420</v>
+        <v>223430</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>271866</v>
+        <v>270898</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4010222028631302</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.365562851131575</v>
+        <v>0.3607354968326981</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4389371414853721</v>
+        <v>0.4373740823268961</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>502</v>
@@ -7033,19 +7033,19 @@
         <v>433094</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>401828</v>
+        <v>398735</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>469165</v>
+        <v>465383</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3880670649258139</v>
+        <v>0.388067064925814</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3600522718095603</v>
+        <v>0.357280241774117</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4203885861203371</v>
+        <v>0.4169994297475733</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>225814</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202467</v>
+        <v>202213</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>251297</v>
+        <v>248469</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4546691140345416</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4076608757588128</v>
+        <v>0.4071502879745715</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5059792408653767</v>
+        <v>0.5002842470969296</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>463</v>
@@ -7083,19 +7083,19 @@
         <v>324409</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>304213</v>
+        <v>302333</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>348159</v>
+        <v>348688</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5237693689585295</v>
+        <v>0.5237693689585298</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4911630780338029</v>
+        <v>0.4881279141109214</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5621158557564855</v>
+        <v>0.5629688584003537</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>679</v>
@@ -7104,19 +7104,19 @@
         <v>550222</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>516400</v>
+        <v>513003</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>583659</v>
+        <v>582000</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4930183552801424</v>
+        <v>0.4930183552801425</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4627119981705743</v>
+        <v>0.4596682043625886</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.522978982145844</v>
+        <v>0.5214926138191333</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>109143</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>88785</v>
+        <v>86512</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>135923</v>
+        <v>134312</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1138292087641108</v>
+        <v>0.1138292087641109</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09259752525123087</v>
+        <v>0.09022634056473701</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1417586897234721</v>
+        <v>0.140078643368424</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>76</v>
@@ -7229,19 +7229,19 @@
         <v>60525</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>49020</v>
+        <v>47561</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>76088</v>
+        <v>76923</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.05433987675181914</v>
+        <v>0.05433987675181916</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04401050422864543</v>
+        <v>0.04270064939090782</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06831254652020365</v>
+        <v>0.06906250671611905</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>158</v>
@@ -7250,19 +7250,19 @@
         <v>169668</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>143632</v>
+        <v>142432</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>200058</v>
+        <v>201318</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08186034944460696</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06929891298923388</v>
+        <v>0.06871989216843706</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09652292373842618</v>
+        <v>0.09713083104651614</v>
       </c>
     </row>
     <row r="10">
@@ -7282,16 +7282,16 @@
         <v>96286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149308</v>
+        <v>148087</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1244633306595709</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1004200846665732</v>
+        <v>0.100420241808383</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1557186795131089</v>
+        <v>0.1544448396753308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -7300,19 +7300,19 @@
         <v>55041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42936</v>
+        <v>43796</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69920</v>
+        <v>71162</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04941699838820852</v>
+        <v>0.04941699838820851</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03854885716368427</v>
+        <v>0.03932029979524301</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06277485866363362</v>
+        <v>0.06388977563043655</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -7321,19 +7321,19 @@
         <v>174381</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>147475</v>
+        <v>148750</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203213</v>
+        <v>209896</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08413432447183601</v>
+        <v>0.084134324471836</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07115270987451518</v>
+        <v>0.07176823605442309</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09804514851559322</v>
+        <v>0.1012694248498442</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>358940</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>323464</v>
+        <v>328211</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>392208</v>
+        <v>391619</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.374351281087339</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3373519251617667</v>
+        <v>0.3423025799895718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.409048136258076</v>
+        <v>0.4084336776568337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>719</v>
@@ -7371,19 +7371,19 @@
         <v>506439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>477477</v>
+        <v>477019</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>537569</v>
+        <v>535196</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4546878902194828</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4286853570685845</v>
+        <v>0.4282742826594071</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4826366187508883</v>
+        <v>0.4805064181782688</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1098</v>
@@ -7392,19 +7392,19 @@
         <v>865379</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>818039</v>
+        <v>821662</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>912620</v>
+        <v>910826</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4175232191252518</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3946830421688946</v>
+        <v>0.3964306602982466</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.440315573200083</v>
+        <v>0.439450318928674</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>371410</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>336488</v>
+        <v>338431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>403218</v>
+        <v>403881</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3873561794889793</v>
+        <v>0.3873561794889792</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3509356949055417</v>
+        <v>0.352961979743308</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4205304945459186</v>
+        <v>0.421222228557795</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>738</v>
@@ -7442,19 +7442,19 @@
         <v>491812</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>461844</v>
+        <v>461099</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>522050</v>
+        <v>519742</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4415552346404896</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4146496383563178</v>
+        <v>0.4139807190072408</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4687034625218591</v>
+        <v>0.4666313269684417</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1103</v>
@@ -7463,19 +7463,19 @@
         <v>863221</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>820133</v>
+        <v>819997</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>907376</v>
+        <v>909626</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4164821069583053</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3956930909303521</v>
+        <v>0.3956273173225252</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.437785811415699</v>
+        <v>0.4388710269773148</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>146500</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>120129</v>
+        <v>118517</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175385</v>
+        <v>175686</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1401836379979136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1149494940939835</v>
+        <v>0.1134075157065012</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1678237656886671</v>
+        <v>0.1681116830635113</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -7588,19 +7588,19 @@
         <v>87227</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71305</v>
+        <v>70997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>106937</v>
+        <v>106016</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08332289117881944</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06811359419467271</v>
+        <v>0.06781933521073624</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1021506725113156</v>
+        <v>0.1012715104089234</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>212</v>
@@ -7609,19 +7609,19 @@
         <v>233727</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>204080</v>
+        <v>202423</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>270096</v>
+        <v>269702</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.111728811243208</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09755670370180733</v>
+        <v>0.09676476123567702</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.12911481409494</v>
+        <v>0.1289264501119993</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>142909</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>120605</v>
+        <v>116606</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>173353</v>
+        <v>171939</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1367481168598203</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1154050795458209</v>
+        <v>0.1115789592991125</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1658795688678338</v>
+        <v>0.1645263820413546</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>87</v>
@@ -7659,19 +7659,19 @@
         <v>73751</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>59811</v>
+        <v>58505</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>91188</v>
+        <v>91843</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.07044993285887051</v>
+        <v>0.0704499328588705</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05713396203342104</v>
+        <v>0.05588669548735269</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08710690094645344</v>
+        <v>0.08773244440615996</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>201</v>
@@ -7680,19 +7680,19 @@
         <v>216660</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>188249</v>
+        <v>185897</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>249146</v>
+        <v>248158</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1035705128810924</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08998905008323474</v>
+        <v>0.08886460048702917</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1190998474215255</v>
+        <v>0.1186276050158339</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>424309</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>391662</v>
+        <v>392415</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>458759</v>
+        <v>459525</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4060156548827956</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3747766188219794</v>
+        <v>0.3754966897488485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4389804635575536</v>
+        <v>0.4397136074781832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>756</v>
@@ -7730,19 +7730,19 @@
         <v>493738</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>464895</v>
+        <v>467813</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>522016</v>
+        <v>521919</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4716395622188438</v>
+        <v>0.4716395622188437</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.444087445039693</v>
+        <v>0.4468753678485289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4986519672201952</v>
+        <v>0.4985591018163673</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1215</v>
@@ -7751,19 +7751,19 @@
         <v>918046</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>871561</v>
+        <v>871331</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>960007</v>
+        <v>960497</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.438855830551875</v>
+        <v>0.4388558305518751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4166343784825411</v>
+        <v>0.4165245485683236</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4589141736425806</v>
+        <v>0.4591486972536655</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>331337</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>304228</v>
+        <v>298788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>367112</v>
+        <v>362515</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3170525902594705</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2911121740752642</v>
+        <v>0.2859067553146904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3512852882209475</v>
+        <v>0.3468856842872342</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>569</v>
@@ -7801,19 +7801,19 @@
         <v>392139</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>367212</v>
+        <v>365299</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>418937</v>
+        <v>418926</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3745876137434663</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3507771674503604</v>
+        <v>0.3489495184231501</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4001870169699517</v>
+        <v>0.4001762164709339</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>915</v>
@@ -7822,19 +7822,19 @@
         <v>723476</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>678933</v>
+        <v>685290</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>766158</v>
+        <v>769831</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3458448453238245</v>
+        <v>0.3458448453238246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3245518855842922</v>
+        <v>0.3275906868690004</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3662480984432573</v>
+        <v>0.3680038905020899</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>134227</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>107976</v>
+        <v>109834</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>160157</v>
+        <v>161205</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1381334104217065</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1111184540178943</v>
+        <v>0.1130298039819052</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1648172429825998</v>
+        <v>0.1658958606686438</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -7947,19 +7947,19 @@
         <v>84396</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69633</v>
+        <v>69883</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101288</v>
+        <v>102635</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09303164807218064</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07675835360841203</v>
+        <v>0.07703356671174034</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1116522186856798</v>
+        <v>0.1131373570494774</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>223</v>
@@ -7968,19 +7968,19 @@
         <v>218623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>193703</v>
+        <v>191317</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>252116</v>
+        <v>250500</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1163572829251202</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1030939990718329</v>
+        <v>0.1018243925837636</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1341833878756217</v>
+        <v>0.1333228728609988</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>131535</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108289</v>
+        <v>108827</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161109</v>
+        <v>161402</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1353622883459047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1114403473419931</v>
+        <v>0.1119933488898199</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1657975181739305</v>
+        <v>0.1660991625932288</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>92</v>
@@ -8018,19 +8018,19 @@
         <v>84011</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67783</v>
+        <v>66392</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>103325</v>
+        <v>106600</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09260787545599564</v>
+        <v>0.09260787545599565</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07471901007511998</v>
+        <v>0.07318591106802512</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.113897779521708</v>
+        <v>0.1175083097272506</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>195</v>
@@ -8039,19 +8039,19 @@
         <v>215546</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>184788</v>
+        <v>184626</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>251622</v>
+        <v>252813</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1147195130388741</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09834918074216463</v>
+        <v>0.09826294471992836</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1339201312527471</v>
+        <v>0.1345539705627804</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>481992</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>447167</v>
+        <v>445951</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>515774</v>
+        <v>514982</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4960179991198493</v>
+        <v>0.4960179991198494</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.460179936337155</v>
+        <v>0.4589285542421377</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5307832890090769</v>
+        <v>0.5299683384104881</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>742</v>
@@ -8089,19 +8089,19 @@
         <v>455839</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>428071</v>
+        <v>430105</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>484812</v>
+        <v>483385</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5024831576951452</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.471873607944839</v>
+        <v>0.4741161772077996</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5344208974766023</v>
+        <v>0.5328482348748962</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1254</v>
@@ -8110,19 +8110,19 @@
         <v>937831</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>899611</v>
+        <v>895092</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>984573</v>
+        <v>978811</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4991395205435631</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4787980457589495</v>
+        <v>0.4763925916364541</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5240169982516885</v>
+        <v>0.5209506039932822</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>223969</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>196133</v>
+        <v>197248</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>253896</v>
+        <v>252600</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2304863021125394</v>
+        <v>0.2304863021125395</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2018407020716707</v>
+        <v>0.2029881311431513</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.261284528841624</v>
+        <v>0.2599508061586168</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>370</v>
@@ -8160,19 +8160,19 @@
         <v>282926</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>258966</v>
+        <v>256154</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>312124</v>
+        <v>307754</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3118773187766785</v>
+        <v>0.3118773187766786</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2854650236830725</v>
+        <v>0.2823652061798704</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3440622601434121</v>
+        <v>0.3392451324658544</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>589</v>
@@ -8181,19 +8181,19 @@
         <v>506895</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>466459</v>
+        <v>470944</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>546283</v>
+        <v>548835</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2697836834924427</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2482625705936837</v>
+        <v>0.2506495377620645</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2907467576926924</v>
+        <v>0.2921051202751557</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>422612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>380282</v>
+        <v>381846</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>470578</v>
+        <v>475999</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1217107207833167</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.109519875576319</v>
+        <v>0.1099704127382188</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1355248803056016</v>
+        <v>0.1370859295228482</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>326</v>
@@ -8306,19 +8306,19 @@
         <v>258333</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>229789</v>
+        <v>229465</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>287300</v>
+        <v>287024</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07006186388183765</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06232049870688069</v>
+        <v>0.06223248539919132</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07791783656550007</v>
+        <v>0.07784308520584382</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>653</v>
@@ -8327,19 +8327,19 @@
         <v>680945</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>618222</v>
+        <v>628782</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>727311</v>
+        <v>734841</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.09511095878107073</v>
+        <v>0.09511095878107076</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08635017379640628</v>
+        <v>0.08782514011891109</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.101587162991729</v>
+        <v>0.1026388067923709</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>447172</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>399504</v>
+        <v>402113</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>501421</v>
+        <v>497291</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1287838164515823</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1150556373893631</v>
+        <v>0.1158070198858498</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.144407386509513</v>
+        <v>0.1432181535525194</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>278</v>
@@ -8377,19 +8377,19 @@
         <v>233200</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>205944</v>
+        <v>204020</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>264611</v>
+        <v>261854</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06324547232202582</v>
+        <v>0.06324547232202583</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05585357382811186</v>
+        <v>0.05533159571853232</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07176453089854551</v>
+        <v>0.07101659778754701</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>618</v>
@@ -8398,19 +8398,19 @@
         <v>680371</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>626365</v>
+        <v>619970</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>737445</v>
+        <v>733355</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0950308069862833</v>
+        <v>0.09503080698628333</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08748750255157318</v>
+        <v>0.08659420747242648</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1030025715526064</v>
+        <v>0.1024313543836911</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>1449952</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1385435</v>
+        <v>1382946</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1511418</v>
+        <v>1510386</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4175810804923096</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3990003932535214</v>
+        <v>0.398283458303594</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.435282939735157</v>
+        <v>0.4349859205816491</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2549</v>
@@ -8448,19 +8448,19 @@
         <v>1704398</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1653434</v>
+        <v>1652905</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1755964</v>
+        <v>1761162</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4622451899802624</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4484234743756518</v>
+        <v>0.448279954760593</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4762302302208353</v>
+        <v>0.4776401108923755</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4069</v>
@@ -8469,19 +8469,19 @@
         <v>3154350</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3078919</v>
+        <v>3066154</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3244744</v>
+        <v>3244950</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4405836163410318</v>
+        <v>0.4405836163410319</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4300477536712202</v>
+        <v>0.4282649092407784</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4532093806343515</v>
+        <v>0.4532381253354412</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>1152529</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1097253</v>
+        <v>1088056</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1221132</v>
+        <v>1209689</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3319243822727914</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3160048981460312</v>
+        <v>0.3133563619847447</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3516815525802964</v>
+        <v>0.3483861595198001</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2140</v>
@@ -8519,19 +8519,19 @@
         <v>1491285</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1433634</v>
+        <v>1437406</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1540230</v>
+        <v>1547516</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.404447473815874</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3888120105723612</v>
+        <v>0.3898350399748974</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4177216329809748</v>
+        <v>0.4196976346042713</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3286</v>
@@ -8540,19 +8540,19 @@
         <v>2643815</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2562748</v>
+        <v>2561213</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2728571</v>
+        <v>2726630</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.369274617891614</v>
+        <v>0.3692746178916141</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3579517038528894</v>
+        <v>0.3577372661105925</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3811129669073017</v>
+        <v>0.3808418842480402</v>
       </c>
     </row>
     <row r="28">
